--- a/ProcessAuto/Companies.xlsx
+++ b/ProcessAuto/Companies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ukwim\Documents\GitHub\Projects\ProcessAuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D078AF00-7B3F-41F6-8D06-AC653E80B9BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A96FAF-177B-46C1-8DD2-A744A8783BA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,39 +25,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
-  <si>
-    <t>НТР</t>
-  </si>
-  <si>
-    <t>ЦФТ</t>
-  </si>
-  <si>
-    <t>ntr@gmail.com</t>
-  </si>
-  <si>
-    <t>cft@gmail.com</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+  <si>
+    <t>HRIvanov@gmail.com</t>
   </si>
   <si>
     <t>123456qQ!</t>
+  </si>
+  <si>
+    <t>HRPetrov@gmail.com</t>
+  </si>
+  <si>
+    <t>Иванов</t>
+  </si>
+  <si>
+    <t>Иван</t>
+  </si>
+  <si>
+    <t>Иванович</t>
+  </si>
+  <si>
+    <t>Петров</t>
+  </si>
+  <si>
+    <t>Петр</t>
+  </si>
+  <si>
+    <t>Петрович</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -80,16 +84,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -368,45 +369,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="14.62890625" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="21.1015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+      <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="F2">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{C67032F7-E5B1-40C1-B6FD-ADCFE3BCD7B2}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{4BB1D3B7-7C1A-407E-89C8-7A5E767F1E33}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ProcessAuto/Companies.xlsx
+++ b/ProcessAuto/Companies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ukwim\Documents\GitHub\Projects\ProcessAuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A96FAF-177B-46C1-8DD2-A744A8783BA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAD7C22-55C0-4732-8B74-3102B78B4E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -372,12 +372,13 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="4" max="4" width="21.1015625" customWidth="1"/>
+    <col min="5" max="5" width="12.26171875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">

--- a/ProcessAuto/Companies.xlsx
+++ b/ProcessAuto/Companies.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ukwim\Documents\GitHub\Projects\ProcessAuto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ukwim\Documents\proc\AutoProcesses\ProcessAuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAD7C22-55C0-4732-8B74-3102B78B4E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F36795-1C66-4FC7-A588-1A6894F49E0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,43 +25,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
-  <si>
-    <t>HRIvanov@gmail.com</t>
-  </si>
-  <si>
-    <t>123456qQ!</t>
-  </si>
-  <si>
-    <t>HRPetrov@gmail.com</t>
-  </si>
-  <si>
-    <t>Иванов</t>
-  </si>
-  <si>
-    <t>Иван</t>
-  </si>
-  <si>
-    <t>Иванович</t>
-  </si>
-  <si>
-    <t>Петров</t>
-  </si>
-  <si>
-    <t>Петр</t>
-  </si>
-  <si>
-    <t>Петрович</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>Лебедев</t>
+  </si>
+  <si>
+    <t>Павел</t>
+  </si>
+  <si>
+    <t>Яковлевич</t>
+  </si>
+  <si>
+    <t>Дорофеев</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Федор </t>
+  </si>
+  <si>
+    <t>Юрьевич</t>
+  </si>
+  <si>
+    <t>Захаров</t>
+  </si>
+  <si>
+    <t>Тихон</t>
+  </si>
+  <si>
+    <t>Альбертович</t>
+  </si>
+  <si>
+    <t>Королев</t>
+  </si>
+  <si>
+    <t>Владимир</t>
+  </si>
+  <si>
+    <t>Егорович</t>
+  </si>
+  <si>
+    <t>HRLebedevNTR@gmail.com</t>
+  </si>
+  <si>
+    <t>HRDorofeevCFT@gmail.com</t>
+  </si>
+  <si>
+    <t>HRZacharovKODE@gmail.com</t>
+  </si>
+  <si>
+    <t>HRKorolevERP@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -84,13 +113,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -369,59 +401,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="4" max="4" width="21.1015625" customWidth="1"/>
+    <col min="2" max="2" width="10.47265625" customWidth="1"/>
+    <col min="3" max="3" width="14.41796875" customWidth="1"/>
+    <col min="4" max="4" width="31.7890625" customWidth="1"/>
     <col min="5" max="5" width="12.26171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1">
-        <v>1</v>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2">
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D1" r:id="rId1" xr:uid="{AF0DA430-D42D-4A11-8E78-F10560CA9EFD}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{B897D396-173F-451F-AF7D-D376A41BEC62}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{34719ACB-7BD2-4502-8FF1-0467BC572246}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{167A6ACD-3B71-4168-84D1-D3E659E8482C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>